--- a/Code/Results/Cases/Case_0_198/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_0_198/res_line/pl_mw.xlsx
@@ -424,25 +424,25 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>0.0001925376209039875</v>
+        <v>1.182803375754382E-05</v>
       </c>
       <c r="D2">
-        <v>0.03117295026072497</v>
+        <v>0.01030109339467344</v>
       </c>
       <c r="E2">
-        <v>0.04097469708498735</v>
+        <v>0.049748111630187</v>
       </c>
       <c r="F2">
-        <v>2.627367299768878</v>
+        <v>1.08748851459336</v>
       </c>
       <c r="G2">
-        <v>2.942701100202697</v>
+        <v>1.050800046505458</v>
       </c>
       <c r="H2">
-        <v>1.4230881157184</v>
+        <v>0.8060506926459254</v>
       </c>
       <c r="I2">
-        <v>2.012034582954016</v>
+        <v>0.8258888374792406</v>
       </c>
       <c r="J2">
         <v>0</v>
@@ -454,10 +454,10 @@
         <v>0</v>
       </c>
       <c r="M2">
-        <v>3.772462875492266</v>
+        <v>1.225885884648903</v>
       </c>
       <c r="N2">
-        <v>3.597586785797375</v>
+        <v>1.62366883687983</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -471,25 +471,25 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>0.0001156917496136778</v>
+        <v>1.681388636876058E-05</v>
       </c>
       <c r="D3">
-        <v>0.02623261365247487</v>
+        <v>0.009400443839112427</v>
       </c>
       <c r="E3">
-        <v>0.03989680558243514</v>
+        <v>0.04988009129297666</v>
       </c>
       <c r="F3">
-        <v>2.254335738691381</v>
+        <v>1.0055234076803</v>
       </c>
       <c r="G3">
-        <v>2.517096998939991</v>
+        <v>0.9543758343926925</v>
       </c>
       <c r="H3">
-        <v>1.229743688480738</v>
+        <v>0.7676947923526711</v>
       </c>
       <c r="I3">
-        <v>1.725779989255173</v>
+        <v>0.7630507381648073</v>
       </c>
       <c r="J3">
         <v>0</v>
@@ -501,10 +501,10 @@
         <v>0</v>
       </c>
       <c r="M3">
-        <v>3.262681262107904</v>
+        <v>1.079393240439117</v>
       </c>
       <c r="N3">
-        <v>3.209350947185612</v>
+        <v>1.495714242357394</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -518,25 +518,25 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>7.860147949445562E-05</v>
+        <v>2.043077137448002E-05</v>
       </c>
       <c r="D4">
-        <v>0.02335704094793201</v>
+        <v>0.008860912165353341</v>
       </c>
       <c r="E4">
-        <v>0.03932466875865437</v>
+        <v>0.0500219451821593</v>
       </c>
       <c r="F4">
-        <v>2.032255834303072</v>
+        <v>0.9560577475651399</v>
       </c>
       <c r="G4">
-        <v>2.263632761831616</v>
+        <v>0.8959646918607405</v>
       </c>
       <c r="H4">
-        <v>1.115050803981632</v>
+        <v>0.7448086268890677</v>
       </c>
       <c r="I4">
-        <v>1.555403957438017</v>
+        <v>0.7251253590535782</v>
       </c>
       <c r="J4">
         <v>0</v>
@@ -548,10 +548,10 @@
         <v>0</v>
       </c>
       <c r="M4">
-        <v>2.952871585193762</v>
+        <v>0.9894087817867216</v>
       </c>
       <c r="N4">
-        <v>2.972000033943715</v>
+        <v>1.41737298981576</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -565,25 +565,25 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>6.560614155914912E-05</v>
+        <v>2.203776956011261E-05</v>
       </c>
       <c r="D5">
-        <v>0.02221890553669326</v>
+        <v>0.008644319369224718</v>
       </c>
       <c r="E5">
-        <v>0.03911384704137433</v>
+        <v>0.05009511842064285</v>
       </c>
       <c r="F5">
-        <v>1.943254357074721</v>
+        <v>0.9361124065218149</v>
       </c>
       <c r="G5">
-        <v>2.162027060728008</v>
+        <v>0.8723561596830507</v>
       </c>
       <c r="H5">
-        <v>1.069184861632721</v>
+        <v>0.7356471872757311</v>
       </c>
       <c r="I5">
-        <v>1.487132488799162</v>
+        <v>0.7098324735288202</v>
       </c>
       <c r="J5">
         <v>0</v>
@@ -595,10 +595,10 @@
         <v>0</v>
       </c>
       <c r="M5">
-        <v>2.827268762368988</v>
+        <v>0.9527298002085303</v>
       </c>
       <c r="N5">
-        <v>2.875503850770855</v>
+        <v>1.38550805751683</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -612,25 +612,25 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>6.356516007133273E-05</v>
+        <v>2.231245790906833E-05</v>
       </c>
       <c r="D6">
-        <v>0.02203179148008871</v>
+        <v>0.008608548460998122</v>
       </c>
       <c r="E6">
-        <v>0.03908018467234697</v>
+        <v>0.0501081990536445</v>
       </c>
       <c r="F6">
-        <v>1.928559319714807</v>
+        <v>0.9328131979803089</v>
       </c>
       <c r="G6">
-        <v>2.145249198542871</v>
+        <v>0.8684475791007458</v>
       </c>
       <c r="H6">
-        <v>1.061617769948612</v>
+        <v>0.734135829369734</v>
       </c>
       <c r="I6">
-        <v>1.475860683113822</v>
+        <v>0.707302790760437</v>
       </c>
       <c r="J6">
         <v>0</v>
@@ -642,10 +642,10 @@
         <v>0</v>
       </c>
       <c r="M6">
-        <v>2.806447347096238</v>
+        <v>0.9466387003686521</v>
       </c>
       <c r="N6">
-        <v>2.859493527820433</v>
+        <v>1.380220626212946</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -659,25 +659,25 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>7.841814894282706E-05</v>
+        <v>2.045191408073244E-05</v>
       </c>
       <c r="D7">
-        <v>0.0233415626820701</v>
+        <v>0.008857978028878222</v>
       </c>
       <c r="E7">
-        <v>0.03932173533952366</v>
+        <v>0.05002286970476</v>
       </c>
       <c r="F7">
-        <v>2.0310497787884</v>
+        <v>0.9557879036356525</v>
       </c>
       <c r="G7">
-        <v>2.262256021328028</v>
+        <v>0.8956455181891272</v>
       </c>
       <c r="H7">
-        <v>1.114428880293474</v>
+        <v>0.7446844079383936</v>
       </c>
       <c r="I7">
-        <v>1.554478778862602</v>
+        <v>0.7249184622074125</v>
       </c>
       <c r="J7">
         <v>0</v>
@@ -689,10 +689,10 @@
         <v>0</v>
       </c>
       <c r="M7">
-        <v>2.9511752357311</v>
+        <v>0.9889141552222043</v>
       </c>
       <c r="N7">
-        <v>2.970697776447992</v>
+        <v>1.416943001403212</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -706,25 +706,25 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>0.0001636741174690926</v>
+        <v>1.342783489088895E-05</v>
       </c>
       <c r="D8">
-        <v>0.02943291912938406</v>
+        <v>0.009987682766634975</v>
       </c>
       <c r="E8">
-        <v>0.04058424449469555</v>
+        <v>0.04978103906761788</v>
       </c>
       <c r="F8">
-        <v>2.49713941157475</v>
+        <v>1.059045595690989</v>
       </c>
       <c r="G8">
-        <v>2.794134781521223</v>
+        <v>1.017385126365411</v>
       </c>
       <c r="H8">
-        <v>1.355499690741851</v>
+        <v>0.7926862899448395</v>
       </c>
       <c r="I8">
-        <v>1.912091131346841</v>
+        <v>0.8040837796712168</v>
       </c>
       <c r="J8">
         <v>0</v>
@@ -736,10 +736,10 @@
         <v>0</v>
       </c>
       <c r="M8">
-        <v>3.595925647040303</v>
+        <v>1.175382807237639</v>
       </c>
       <c r="N8">
-        <v>3.463489207130038</v>
+        <v>1.579505822833738</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -753,25 +753,25 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>0.0004337219648600232</v>
+        <v>4.364039200677183E-06</v>
       </c>
       <c r="D9">
-        <v>0.04294611807361548</v>
+        <v>0.01231531663410124</v>
       </c>
       <c r="E9">
-        <v>0.04379097828213219</v>
+        <v>0.04978629060947171</v>
       </c>
       <c r="F9">
-        <v>3.479534074755264</v>
+        <v>1.268571307802631</v>
       </c>
       <c r="G9">
-        <v>3.914734112567004</v>
+        <v>1.262657887046629</v>
       </c>
       <c r="H9">
-        <v>1.867366381206097</v>
+        <v>0.8921979767808637</v>
       </c>
       <c r="I9">
-        <v>2.666289216414199</v>
+        <v>0.9647022589186065</v>
       </c>
       <c r="J9">
         <v>0</v>
@@ -783,10 +783,10 @@
         <v>0</v>
       </c>
       <c r="M9">
-        <v>4.893929292436638</v>
+        <v>1.5407802569257</v>
       </c>
       <c r="N9">
-        <v>4.439706637911058</v>
+        <v>1.899924622397236</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -800,25 +800,25 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>0.0007344152592601016</v>
+        <v>1.001476743311969E-06</v>
       </c>
       <c r="D10">
-        <v>0.05435887767472991</v>
+        <v>0.01410156939377316</v>
       </c>
       <c r="E10">
-        <v>0.0466380157074191</v>
+        <v>0.05007853355576941</v>
       </c>
       <c r="F10">
-        <v>4.264626169862652</v>
+        <v>1.427100737898428</v>
       </c>
       <c r="G10">
-        <v>4.810423293931194</v>
+        <v>1.447205716466556</v>
       </c>
       <c r="H10">
-        <v>2.27917745003441</v>
+        <v>0.9687475313120046</v>
       </c>
       <c r="I10">
-        <v>3.269434831654962</v>
+        <v>1.086219363514203</v>
       </c>
       <c r="J10">
         <v>0</v>
@@ -830,10 +830,10 @@
         <v>0</v>
       </c>
       <c r="M10">
-        <v>5.881864749594286</v>
+        <v>1.809146874145654</v>
       </c>
       <c r="N10">
-        <v>5.165729835310003</v>
+        <v>2.136173379601701</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -847,25 +847,25 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>0.0009052863857047511</v>
+        <v>2.824379321531012E-07</v>
       </c>
       <c r="D11">
-        <v>0.0600241943269495</v>
+        <v>0.01493241203350237</v>
       </c>
       <c r="E11">
-        <v>0.04805698536468839</v>
+        <v>0.05027330041861688</v>
       </c>
       <c r="F11">
-        <v>4.641563701986684</v>
+        <v>1.500283625185205</v>
       </c>
       <c r="G11">
-        <v>5.240611824539542</v>
+        <v>1.532184486564859</v>
       </c>
       <c r="H11">
-        <v>2.477599351300341</v>
+        <v>1.004353823763267</v>
       </c>
       <c r="I11">
-        <v>3.55914603132058</v>
+        <v>1.142314936000446</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -877,10 +877,10 @@
         <v>0</v>
       </c>
       <c r="M11">
-        <v>6.342624006584145</v>
+        <v>1.931232462786454</v>
       </c>
       <c r="N11">
-        <v>5.498665015327163</v>
+        <v>2.243799872429918</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -894,25 +894,25 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>0.0009762033345633858</v>
+        <v>1.348037184101258E-07</v>
       </c>
       <c r="D12">
-        <v>0.06225364052399129</v>
+        <v>0.01524979541130023</v>
       </c>
       <c r="E12">
-        <v>0.04861423877415305</v>
+        <v>0.05035587567177302</v>
       </c>
       <c r="F12">
-        <v>4.787772773269495</v>
+        <v>1.528154736086378</v>
       </c>
       <c r="G12">
-        <v>5.407510017245386</v>
+        <v>1.564517637188146</v>
       </c>
       <c r="H12">
-        <v>2.554675807656679</v>
+        <v>1.017952434103393</v>
       </c>
       <c r="I12">
-        <v>3.671543617291007</v>
+        <v>1.163678386517176</v>
       </c>
       <c r="J12">
         <v>0</v>
@@ -924,10 +924,10 @@
         <v>0</v>
       </c>
       <c r="M12">
-        <v>6.519136314249522</v>
+        <v>1.977464701674876</v>
       </c>
       <c r="N12">
-        <v>5.625192711303271</v>
+        <v>2.284574601459553</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -941,25 +941,25 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>0.0009606293542677724</v>
+        <v>1.609246100819917E-07</v>
       </c>
       <c r="D13">
-        <v>0.06176945512996213</v>
+        <v>0.01518131624654018</v>
       </c>
       <c r="E13">
-        <v>0.0484932971018921</v>
+        <v>0.050337700369397</v>
       </c>
       <c r="F13">
-        <v>4.756118345926154</v>
+        <v>1.522145072561329</v>
       </c>
       <c r="G13">
-        <v>5.371374662918413</v>
+        <v>1.557547192032587</v>
       </c>
       <c r="H13">
-        <v>2.537983566017488</v>
+        <v>1.015018560838371</v>
       </c>
       <c r="I13">
-        <v>3.647208352113154</v>
+        <v>1.15907193002927</v>
       </c>
       <c r="J13">
         <v>0</v>
@@ -971,10 +971,10 @@
         <v>0</v>
       </c>
       <c r="M13">
-        <v>6.481023521223705</v>
+        <v>1.967507705822044</v>
       </c>
       <c r="N13">
-        <v>5.597921371939378</v>
+        <v>2.275792247643608</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -988,25 +988,25 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>0.0009109875775757947</v>
+        <v>2.677473402989961E-07</v>
       </c>
       <c r="D14">
-        <v>0.06020582209266223</v>
+        <v>0.01495846723521055</v>
       </c>
       <c r="E14">
-        <v>0.0481024171035429</v>
+        <v>0.05027991753398098</v>
       </c>
       <c r="F14">
-        <v>4.653518817114133</v>
+        <v>1.502573396526572</v>
       </c>
       <c r="G14">
-        <v>5.25425788547102</v>
+        <v>1.534841443415644</v>
       </c>
       <c r="H14">
-        <v>2.483899408456409</v>
+        <v>1.005470264106521</v>
       </c>
       <c r="I14">
-        <v>3.568336003610085</v>
+        <v>1.14407006731895</v>
       </c>
       <c r="J14">
         <v>0</v>
@@ -1018,10 +1018,10 @@
         <v>0</v>
       </c>
       <c r="M14">
-        <v>6.357102441093019</v>
+        <v>1.93503599242473</v>
       </c>
       <c r="N14">
-        <v>5.509065024364816</v>
+        <v>2.247154074618493</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1035,25 +1035,25 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>0.0008814340305581814</v>
+        <v>3.496553775406142E-07</v>
       </c>
       <c r="D15">
-        <v>0.05925954086215768</v>
+        <v>0.01482232941456374</v>
       </c>
       <c r="E15">
-        <v>0.04786566058457709</v>
+        <v>0.05024567064143071</v>
       </c>
       <c r="F15">
-        <v>4.591146347276521</v>
+        <v>1.490605947180086</v>
       </c>
       <c r="G15">
-        <v>5.183064805842321</v>
+        <v>1.520953686752648</v>
       </c>
       <c r="H15">
-        <v>2.451035133706171</v>
+        <v>0.9996367478540265</v>
       </c>
       <c r="I15">
-        <v>3.520390815458754</v>
+        <v>1.1348969011338</v>
       </c>
       <c r="J15">
         <v>0</v>
@@ -1065,10 +1065,10 @@
         <v>0</v>
       </c>
       <c r="M15">
-        <v>6.281475265842829</v>
+        <v>1.915146285493734</v>
       </c>
       <c r="N15">
-        <v>5.454699093096849</v>
+        <v>2.229614727384728</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1082,25 +1082,25 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>0.0007240391052808492</v>
+        <v>1.06546426748011E-06</v>
       </c>
       <c r="D16">
-        <v>0.0539994576170173</v>
+        <v>0.01404765090300941</v>
       </c>
       <c r="E16">
-        <v>0.04654794000690998</v>
+        <v>0.05006704321993638</v>
       </c>
       <c r="F16">
-        <v>4.240441369955477</v>
+        <v>1.422339952795738</v>
       </c>
       <c r="G16">
-        <v>4.782825777424222</v>
+        <v>1.441673318292004</v>
       </c>
       <c r="H16">
-        <v>2.266461098298748</v>
+        <v>0.9664365648615103</v>
       </c>
       <c r="I16">
-        <v>3.250849441561229</v>
+        <v>1.082570147319458</v>
       </c>
       <c r="J16">
         <v>0</v>
@@ -1112,10 +1112,10 @@
         <v>0</v>
       </c>
       <c r="M16">
-        <v>5.852013810022356</v>
+        <v>1.801168417535507</v>
       </c>
       <c r="N16">
-        <v>5.144031034059196</v>
+        <v>2.129142569809687</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1129,25 +1129,25 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>0.0006370479387411976</v>
+        <v>1.717893465258413E-06</v>
       </c>
       <c r="D17">
-        <v>0.05090422416849094</v>
+        <v>0.01357718440233668</v>
       </c>
       <c r="E17">
-        <v>0.04577257743511254</v>
+        <v>0.04997324627325028</v>
       </c>
       <c r="F17">
-        <v>4.030772444005635</v>
+        <v>1.380737733549921</v>
       </c>
       <c r="G17">
-        <v>4.54358819652586</v>
+        <v>1.393304559359365</v>
       </c>
       <c r="H17">
-        <v>2.15629482718947</v>
+        <v>0.9462718483518699</v>
       </c>
       <c r="I17">
-        <v>3.089738807435495</v>
+        <v>1.050681282988421</v>
       </c>
       <c r="J17">
         <v>0</v>
@@ -1159,10 +1159,10 @@
         <v>0</v>
       </c>
       <c r="M17">
-        <v>5.591719534492256</v>
+        <v>1.731248086192039</v>
       </c>
       <c r="N17">
-        <v>4.954174664614357</v>
+        <v>2.067543545284309</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1176,25 +1176,25 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>0.0005901263579550786</v>
+        <v>2.168955577364073E-06</v>
       </c>
       <c r="D18">
-        <v>0.04916737030263363</v>
+        <v>0.01330829574266801</v>
       </c>
       <c r="E18">
-        <v>0.04533810418250539</v>
+        <v>0.04992511997911109</v>
       </c>
       <c r="F18">
-        <v>3.911995893119098</v>
+        <v>1.356909375592465</v>
       </c>
       <c r="G18">
-        <v>4.408074117140899</v>
+        <v>1.365580442558468</v>
       </c>
       <c r="H18">
-        <v>2.09394954182784</v>
+        <v>0.9347472259857739</v>
       </c>
       <c r="I18">
-        <v>2.998481875811507</v>
+        <v>1.032416303682439</v>
       </c>
       <c r="J18">
         <v>0</v>
@@ -1206,10 +1206,10 @@
         <v>0</v>
       </c>
       <c r="M18">
-        <v>5.443044506263192</v>
+        <v>1.691032130464777</v>
       </c>
       <c r="N18">
-        <v>4.845220303757458</v>
+        <v>2.032128279290475</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1223,25 +1223,25 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>0.0005747393628308117</v>
+        <v>2.334453022889704E-06</v>
       </c>
       <c r="D19">
-        <v>0.04858632874540092</v>
+        <v>0.01321754450622592</v>
       </c>
       <c r="E19">
-        <v>0.04519291954499849</v>
+        <v>0.04990982750630835</v>
       </c>
       <c r="F19">
-        <v>3.872075595995625</v>
+        <v>1.348858553957228</v>
       </c>
       <c r="G19">
-        <v>4.362530315684836</v>
+        <v>1.356209898400635</v>
       </c>
       <c r="H19">
-        <v>2.073006175099778</v>
+        <v>0.9308577470840476</v>
       </c>
       <c r="I19">
-        <v>2.967812688228406</v>
+        <v>1.026245145399528</v>
       </c>
       <c r="J19">
         <v>0</v>
@@ -1253,10 +1253,10 @@
         <v>0</v>
       </c>
       <c r="M19">
-        <v>5.392873241840817</v>
+        <v>1.67741574946254</v>
       </c>
       <c r="N19">
-        <v>4.808370529818887</v>
+        <v>2.020139938888121</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1270,25 +1270,25 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>0.0006459775852956096</v>
+        <v>1.640538906499955E-06</v>
       </c>
       <c r="D20">
-        <v>0.05122911570487076</v>
+        <v>0.01362708829238102</v>
       </c>
       <c r="E20">
-        <v>0.04585391326687827</v>
+        <v>0.04998262893982286</v>
       </c>
       <c r="F20">
-        <v>4.052899613526051</v>
+        <v>1.385155961669284</v>
       </c>
       <c r="G20">
-        <v>4.568834429649343</v>
+        <v>1.39844348613056</v>
       </c>
       <c r="H20">
-        <v>2.167914427848444</v>
+        <v>0.948410781878323</v>
       </c>
       <c r="I20">
-        <v>3.106740205571697</v>
+        <v>1.054067946414307</v>
       </c>
       <c r="J20">
         <v>0</v>
@@ -1300,10 +1300,10 @@
         <v>0</v>
       </c>
       <c r="M20">
-        <v>5.619318079950489</v>
+        <v>1.738691183464198</v>
       </c>
       <c r="N20">
-        <v>4.974359268947126</v>
+        <v>2.074099353724989</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1317,25 +1317,25 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>0.0009253878834247775</v>
+        <v>2.329218986574233E-07</v>
       </c>
       <c r="D21">
-        <v>0.06066267096875322</v>
+        <v>0.01502384736780016</v>
       </c>
       <c r="E21">
-        <v>0.04821666707841032</v>
+        <v>0.05029665089014657</v>
       </c>
       <c r="F21">
-        <v>4.68355497645436</v>
+        <v>1.508317735445104</v>
       </c>
       <c r="G21">
-        <v>5.288542974487484</v>
+        <v>1.541506458202718</v>
       </c>
       <c r="H21">
-        <v>2.499729538122494</v>
+        <v>1.00827168058936</v>
       </c>
       <c r="I21">
-        <v>3.591425358200539</v>
+        <v>1.148473155955529</v>
       </c>
       <c r="J21">
         <v>0</v>
@@ -1347,10 +1347,10 @@
         <v>0</v>
       </c>
       <c r="M21">
-        <v>6.393442279624253</v>
+        <v>1.944573688519739</v>
       </c>
       <c r="N21">
-        <v>5.535151405712952</v>
+        <v>2.255565314398893</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1364,25 +1364,25 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>0.001145074995190454</v>
+        <v>4.342262860390633E-08</v>
       </c>
       <c r="D22">
-        <v>0.06732851342759716</v>
+        <v>0.01595286918922767</v>
       </c>
       <c r="E22">
-        <v>0.04987849950041223</v>
+        <v>0.05055326835550034</v>
       </c>
       <c r="F22">
-        <v>5.116344446010146</v>
+        <v>1.589736334002254</v>
       </c>
       <c r="G22">
-        <v>5.782652380304739</v>
+        <v>1.63590408239736</v>
       </c>
       <c r="H22">
-        <v>2.728102371071373</v>
+        <v>1.048067425558884</v>
       </c>
       <c r="I22">
-        <v>3.92417730174752</v>
+        <v>1.210881117160866</v>
       </c>
       <c r="J22">
         <v>0</v>
@@ -1394,10 +1394,10 @@
         <v>0</v>
       </c>
       <c r="M22">
-        <v>6.911477023013049</v>
+        <v>2.07913634713384</v>
       </c>
       <c r="N22">
-        <v>5.904338346838017</v>
+        <v>2.374272474789848</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1411,25 +1411,25 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>0.001023906092263882</v>
+        <v>7.499756771167654E-08</v>
       </c>
       <c r="D23">
-        <v>0.06371876813543054</v>
+        <v>0.01545550918010719</v>
       </c>
       <c r="E23">
-        <v>0.04897989371018241</v>
+        <v>0.05041162743387062</v>
       </c>
       <c r="F23">
-        <v>4.883228701830859</v>
+        <v>1.546195393572447</v>
       </c>
       <c r="G23">
-        <v>5.516484347675032</v>
+        <v>1.585438196227472</v>
       </c>
       <c r="H23">
-        <v>2.605029135288078</v>
+        <v>1.02676521544339</v>
       </c>
       <c r="I23">
-        <v>3.744931700427927</v>
+        <v>1.177506689885476</v>
       </c>
       <c r="J23">
         <v>0</v>
@@ -1441,10 +1441,10 @@
         <v>0</v>
       </c>
       <c r="M23">
-        <v>6.633729283940198</v>
+        <v>2.007316953280679</v>
       </c>
       <c r="N23">
-        <v>5.707025651197057</v>
+        <v>2.310907419963826</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1458,25 +1458,25 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>0.0006419309592444744</v>
+        <v>1.675274852619424E-06</v>
       </c>
       <c r="D24">
-        <v>0.05108210059733409</v>
+        <v>0.01360452180549032</v>
       </c>
       <c r="E24">
-        <v>0.0458171063118975</v>
+        <v>0.04997836896900409</v>
       </c>
       <c r="F24">
-        <v>4.042890468350777</v>
+        <v>1.383158202918764</v>
       </c>
       <c r="G24">
-        <v>4.557414347474946</v>
+        <v>1.396119916987288</v>
       </c>
       <c r="H24">
-        <v>2.162658145401764</v>
+        <v>0.947443557358838</v>
       </c>
       <c r="I24">
-        <v>3.099049648622497</v>
+        <v>1.052536623260991</v>
       </c>
       <c r="J24">
         <v>0</v>
@@ -1488,10 +1488,10 @@
         <v>0</v>
       </c>
       <c r="M24">
-        <v>5.606837780388361</v>
+        <v>1.735326214744248</v>
       </c>
       <c r="N24">
-        <v>4.965233202082686</v>
+        <v>2.071135476096288</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1505,25 +1505,25 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>0.0003460657511515919</v>
+        <v>6.268529575859105E-06</v>
       </c>
       <c r="D25">
-        <v>0.03907360338932619</v>
+        <v>0.01167282175692463</v>
       </c>
       <c r="E25">
-        <v>0.04284161590372548</v>
+        <v>0.04973394683104004</v>
       </c>
       <c r="F25">
-        <v>3.204424184574805</v>
+        <v>1.211104831029076</v>
       </c>
       <c r="G25">
-        <v>3.600929993450563</v>
+        <v>1.195568090093758</v>
       </c>
       <c r="H25">
-        <v>1.723592110880844</v>
+        <v>0.8646852273309662</v>
       </c>
       <c r="I25">
-        <v>2.455023908922001</v>
+        <v>0.9206512817370935</v>
       </c>
       <c r="J25">
         <v>0</v>
@@ -1535,10 +1535,10 @@
         <v>0</v>
       </c>
       <c r="M25">
-        <v>4.537898376214756</v>
+        <v>1.441951971154381</v>
       </c>
       <c r="N25">
-        <v>4.174292861626839</v>
+        <v>1.813084641365805</v>
       </c>
       <c r="O25">
         <v>0</v>

--- a/Code/Results/Cases/Case_0_198/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_0_198/res_line/pl_mw.xlsx
@@ -424,25 +424,25 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>1.182803375754382E-05</v>
+        <v>0.0001925376211269203</v>
       </c>
       <c r="D2">
-        <v>0.01030109339467344</v>
+        <v>0.03117295026061839</v>
       </c>
       <c r="E2">
-        <v>0.049748111630187</v>
+        <v>0.04097469708498735</v>
       </c>
       <c r="F2">
-        <v>1.08748851459336</v>
+        <v>2.627367299768906</v>
       </c>
       <c r="G2">
-        <v>1.050800046505458</v>
+        <v>2.942701100202726</v>
       </c>
       <c r="H2">
-        <v>0.8060506926459254</v>
+        <v>1.423088115718286</v>
       </c>
       <c r="I2">
-        <v>0.8258888374792406</v>
+        <v>2.01203458295403</v>
       </c>
       <c r="J2">
         <v>0</v>
@@ -454,10 +454,10 @@
         <v>0</v>
       </c>
       <c r="M2">
-        <v>1.225885884648903</v>
+        <v>3.772462875492309</v>
       </c>
       <c r="N2">
-        <v>1.62366883687983</v>
+        <v>3.597586785797262</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -471,25 +471,25 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>1.681388636876058E-05</v>
+        <v>0.0001156917496170085</v>
       </c>
       <c r="D3">
-        <v>0.009400443839112427</v>
+        <v>0.02623261365216223</v>
       </c>
       <c r="E3">
-        <v>0.04988009129297666</v>
+        <v>0.03989680558243336</v>
       </c>
       <c r="F3">
-        <v>1.0055234076803</v>
+        <v>2.25433573869141</v>
       </c>
       <c r="G3">
-        <v>0.9543758343926925</v>
+        <v>2.517096998939792</v>
       </c>
       <c r="H3">
-        <v>0.7676947923526711</v>
+        <v>1.229743688480738</v>
       </c>
       <c r="I3">
-        <v>0.7630507381648073</v>
+        <v>1.725779989255159</v>
       </c>
       <c r="J3">
         <v>0</v>
@@ -501,10 +501,10 @@
         <v>0</v>
       </c>
       <c r="M3">
-        <v>1.079393240439117</v>
+        <v>3.262681262107947</v>
       </c>
       <c r="N3">
-        <v>1.495714242357394</v>
+        <v>3.209350947185499</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -518,25 +518,25 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>2.043077137448002E-05</v>
+        <v>7.860147948934859E-05</v>
       </c>
       <c r="D4">
-        <v>0.008860912165353341</v>
+        <v>0.02335704094793201</v>
       </c>
       <c r="E4">
-        <v>0.0500219451821593</v>
+        <v>0.03932466875865082</v>
       </c>
       <c r="F4">
-        <v>0.9560577475651399</v>
+        <v>2.032255834303072</v>
       </c>
       <c r="G4">
-        <v>0.8959646918607405</v>
+        <v>2.26363276183173</v>
       </c>
       <c r="H4">
-        <v>0.7448086268890677</v>
+        <v>1.115050803981603</v>
       </c>
       <c r="I4">
-        <v>0.7251253590535782</v>
+        <v>1.555403957438017</v>
       </c>
       <c r="J4">
         <v>0</v>
@@ -548,10 +548,10 @@
         <v>0</v>
       </c>
       <c r="M4">
-        <v>0.9894087817867216</v>
+        <v>2.952871585193776</v>
       </c>
       <c r="N4">
-        <v>1.41737298981576</v>
+        <v>2.972000033943687</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -565,25 +565,25 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>2.203776956011261E-05</v>
+        <v>6.560614155826094E-05</v>
       </c>
       <c r="D5">
-        <v>0.008644319369224718</v>
+        <v>0.02221890553669681</v>
       </c>
       <c r="E5">
-        <v>0.05009511842064285</v>
+        <v>0.03911384704134058</v>
       </c>
       <c r="F5">
-        <v>0.9361124065218149</v>
+        <v>1.943254357074721</v>
       </c>
       <c r="G5">
-        <v>0.8723561596830507</v>
+        <v>2.162027060728093</v>
       </c>
       <c r="H5">
-        <v>0.7356471872757311</v>
+        <v>1.069184861632635</v>
       </c>
       <c r="I5">
-        <v>0.7098324735288202</v>
+        <v>1.487132488799162</v>
       </c>
       <c r="J5">
         <v>0</v>
@@ -595,10 +595,10 @@
         <v>0</v>
       </c>
       <c r="M5">
-        <v>0.9527298002085303</v>
+        <v>2.827268762368988</v>
       </c>
       <c r="N5">
-        <v>1.38550805751683</v>
+        <v>2.875503850770855</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -612,25 +612,25 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>2.231245790906833E-05</v>
+        <v>6.356516026961856E-05</v>
       </c>
       <c r="D6">
-        <v>0.008608548460998122</v>
+        <v>0.02203179148017753</v>
       </c>
       <c r="E6">
-        <v>0.0501081990536445</v>
+        <v>0.03908018467235586</v>
       </c>
       <c r="F6">
-        <v>0.9328131979803089</v>
+        <v>1.928559319714793</v>
       </c>
       <c r="G6">
-        <v>0.8684475791007458</v>
+        <v>2.145249198542842</v>
       </c>
       <c r="H6">
-        <v>0.734135829369734</v>
+        <v>1.061617769948583</v>
       </c>
       <c r="I6">
-        <v>0.707302790760437</v>
+        <v>1.475860683113822</v>
       </c>
       <c r="J6">
         <v>0</v>
@@ -642,10 +642,10 @@
         <v>0</v>
       </c>
       <c r="M6">
-        <v>0.9466387003686521</v>
+        <v>2.806447347096253</v>
       </c>
       <c r="N6">
-        <v>1.380220626212946</v>
+        <v>2.859493527820433</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -659,25 +659,25 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>2.045191408073244E-05</v>
+        <v>7.841814914444356E-05</v>
       </c>
       <c r="D7">
-        <v>0.008857978028878222</v>
+        <v>0.02334156268207366</v>
       </c>
       <c r="E7">
-        <v>0.05002286970476</v>
+        <v>0.03932173533952366</v>
       </c>
       <c r="F7">
-        <v>0.9557879036356525</v>
+        <v>2.031049778788386</v>
       </c>
       <c r="G7">
-        <v>0.8956455181891272</v>
+        <v>2.262256021328056</v>
       </c>
       <c r="H7">
-        <v>0.7446844079383936</v>
+        <v>1.114428880293588</v>
       </c>
       <c r="I7">
-        <v>0.7249184622074125</v>
+        <v>1.554478778862617</v>
       </c>
       <c r="J7">
         <v>0</v>
@@ -689,10 +689,10 @@
         <v>0</v>
       </c>
       <c r="M7">
-        <v>0.9889141552222043</v>
+        <v>2.9511752357311</v>
       </c>
       <c r="N7">
-        <v>1.416943001403212</v>
+        <v>2.970697776448105</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -706,25 +706,25 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>1.342783489088895E-05</v>
+        <v>0.0001636741179125156</v>
       </c>
       <c r="D8">
-        <v>0.009987682766634975</v>
+        <v>0.02943291912939117</v>
       </c>
       <c r="E8">
-        <v>0.04978103906761788</v>
+        <v>0.04058424449465292</v>
       </c>
       <c r="F8">
-        <v>1.059045595690989</v>
+        <v>2.497139411574736</v>
       </c>
       <c r="G8">
-        <v>1.017385126365411</v>
+        <v>2.794134781521166</v>
       </c>
       <c r="H8">
-        <v>0.7926862899448395</v>
+        <v>1.35549969074188</v>
       </c>
       <c r="I8">
-        <v>0.8040837796712168</v>
+        <v>1.912091131346827</v>
       </c>
       <c r="J8">
         <v>0</v>
@@ -736,10 +736,10 @@
         <v>0</v>
       </c>
       <c r="M8">
-        <v>1.175382807237639</v>
+        <v>3.595925647040261</v>
       </c>
       <c r="N8">
-        <v>1.579505822833738</v>
+        <v>3.463489207129925</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -753,25 +753,25 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>4.364039200677183E-06</v>
+        <v>0.0004337219646131096</v>
       </c>
       <c r="D9">
-        <v>0.01231531663410124</v>
+        <v>0.04294611807350179</v>
       </c>
       <c r="E9">
-        <v>0.04978629060947171</v>
+        <v>0.04379097828216416</v>
       </c>
       <c r="F9">
-        <v>1.268571307802631</v>
+        <v>3.479534074755264</v>
       </c>
       <c r="G9">
-        <v>1.262657887046629</v>
+        <v>3.914734112567004</v>
       </c>
       <c r="H9">
-        <v>0.8921979767808637</v>
+        <v>1.867366381205983</v>
       </c>
       <c r="I9">
-        <v>0.9647022589186065</v>
+        <v>2.666289216414199</v>
       </c>
       <c r="J9">
         <v>0</v>
@@ -783,10 +783,10 @@
         <v>0</v>
       </c>
       <c r="M9">
-        <v>1.5407802569257</v>
+        <v>4.893929292436624</v>
       </c>
       <c r="N9">
-        <v>1.899924622397236</v>
+        <v>4.439706637911058</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -800,25 +800,25 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>1.001476743311969E-06</v>
+        <v>0.000734415259261878</v>
       </c>
       <c r="D10">
-        <v>0.01410156939377316</v>
+        <v>0.05435887767482939</v>
       </c>
       <c r="E10">
-        <v>0.05007853355576941</v>
+        <v>0.04663801570743686</v>
       </c>
       <c r="F10">
-        <v>1.427100737898428</v>
+        <v>4.264626169862623</v>
       </c>
       <c r="G10">
-        <v>1.447205716466556</v>
+        <v>4.810423293931166</v>
       </c>
       <c r="H10">
-        <v>0.9687475313120046</v>
+        <v>2.279177450034467</v>
       </c>
       <c r="I10">
-        <v>1.086219363514203</v>
+        <v>3.269434831654962</v>
       </c>
       <c r="J10">
         <v>0</v>
@@ -830,10 +830,10 @@
         <v>0</v>
       </c>
       <c r="M10">
-        <v>1.809146874145654</v>
+        <v>5.881864749594257</v>
       </c>
       <c r="N10">
-        <v>2.136173379601701</v>
+        <v>5.165729835310003</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -847,25 +847,25 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>2.824379321531012E-07</v>
+        <v>0.0009052863859813076</v>
       </c>
       <c r="D11">
-        <v>0.01493241203350237</v>
+        <v>0.06002419432672923</v>
       </c>
       <c r="E11">
-        <v>0.05027330041861688</v>
+        <v>0.04805698536468483</v>
       </c>
       <c r="F11">
-        <v>1.500283625185205</v>
+        <v>4.64156370198674</v>
       </c>
       <c r="G11">
-        <v>1.532184486564859</v>
+        <v>5.240611824539542</v>
       </c>
       <c r="H11">
-        <v>1.004353823763267</v>
+        <v>2.477599351300341</v>
       </c>
       <c r="I11">
-        <v>1.142314936000446</v>
+        <v>3.559146031320623</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -877,10 +877,10 @@
         <v>0</v>
       </c>
       <c r="M11">
-        <v>1.931232462786454</v>
+        <v>6.342624006584145</v>
       </c>
       <c r="N11">
-        <v>2.243799872429918</v>
+        <v>5.498665015327163</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -894,25 +894,25 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>1.348037184101258E-07</v>
+        <v>0.0009762033345678267</v>
       </c>
       <c r="D12">
-        <v>0.01524979541130023</v>
+        <v>0.06225364052419735</v>
       </c>
       <c r="E12">
-        <v>0.05035587567177302</v>
+        <v>0.04861423877418858</v>
       </c>
       <c r="F12">
-        <v>1.528154736086378</v>
+        <v>4.787772773269438</v>
       </c>
       <c r="G12">
-        <v>1.564517637188146</v>
+        <v>5.407510017245329</v>
       </c>
       <c r="H12">
-        <v>1.017952434103393</v>
+        <v>2.554675807656622</v>
       </c>
       <c r="I12">
-        <v>1.163678386517176</v>
+        <v>3.671543617291007</v>
       </c>
       <c r="J12">
         <v>0</v>
@@ -924,10 +924,10 @@
         <v>0</v>
       </c>
       <c r="M12">
-        <v>1.977464701674876</v>
+        <v>6.519136314249522</v>
       </c>
       <c r="N12">
-        <v>2.284574601459553</v>
+        <v>5.625192711303271</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -941,25 +941,25 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>1.609246100819917E-07</v>
+        <v>0.0009606293542683275</v>
       </c>
       <c r="D13">
-        <v>0.01518131624654018</v>
+        <v>0.06176945513031029</v>
       </c>
       <c r="E13">
-        <v>0.050337700369397</v>
+        <v>0.0484932971018921</v>
       </c>
       <c r="F13">
-        <v>1.522145072561329</v>
+        <v>4.756118345926126</v>
       </c>
       <c r="G13">
-        <v>1.557547192032587</v>
+        <v>5.371374662918299</v>
       </c>
       <c r="H13">
-        <v>1.015018560838371</v>
+        <v>2.537983566017658</v>
       </c>
       <c r="I13">
-        <v>1.15907193002927</v>
+        <v>3.647208352113154</v>
       </c>
       <c r="J13">
         <v>0</v>
@@ -971,10 +971,10 @@
         <v>0</v>
       </c>
       <c r="M13">
-        <v>1.967507705822044</v>
+        <v>6.481023521223648</v>
       </c>
       <c r="N13">
-        <v>2.275792247643608</v>
+        <v>5.597921371939265</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -988,25 +988,25 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>2.677473402989961E-07</v>
+        <v>0.0009109875770175746</v>
       </c>
       <c r="D14">
-        <v>0.01495846723521055</v>
+        <v>0.06020582209247038</v>
       </c>
       <c r="E14">
-        <v>0.05027991753398098</v>
+        <v>0.04810241710355001</v>
       </c>
       <c r="F14">
-        <v>1.502573396526572</v>
+        <v>4.653518817114104</v>
       </c>
       <c r="G14">
-        <v>1.534841443415644</v>
+        <v>5.254257885470963</v>
       </c>
       <c r="H14">
-        <v>1.005470264106521</v>
+        <v>2.483899408456409</v>
       </c>
       <c r="I14">
-        <v>1.14407006731895</v>
+        <v>3.568336003610042</v>
       </c>
       <c r="J14">
         <v>0</v>
@@ -1018,10 +1018,10 @@
         <v>0</v>
       </c>
       <c r="M14">
-        <v>1.93503599242473</v>
+        <v>6.357102441093019</v>
       </c>
       <c r="N14">
-        <v>2.247154074618493</v>
+        <v>5.509065024364816</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1035,25 +1035,25 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>3.496553775406142E-07</v>
+        <v>0.000881434030481687</v>
       </c>
       <c r="D15">
-        <v>0.01482232941456374</v>
+        <v>0.05925954086229268</v>
       </c>
       <c r="E15">
-        <v>0.05024567064143071</v>
+        <v>0.04786566058460906</v>
       </c>
       <c r="F15">
-        <v>1.490605947180086</v>
+        <v>4.591146347276549</v>
       </c>
       <c r="G15">
-        <v>1.520953686752648</v>
+        <v>5.183064805842321</v>
       </c>
       <c r="H15">
-        <v>0.9996367478540265</v>
+        <v>2.451035133706341</v>
       </c>
       <c r="I15">
-        <v>1.1348969011338</v>
+        <v>3.520390815458768</v>
       </c>
       <c r="J15">
         <v>0</v>
@@ -1065,10 +1065,10 @@
         <v>0</v>
       </c>
       <c r="M15">
-        <v>1.915146285493734</v>
+        <v>6.281475265842857</v>
       </c>
       <c r="N15">
-        <v>2.229614727384728</v>
+        <v>5.454699093096849</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1082,25 +1082,25 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>1.06546426748011E-06</v>
+        <v>0.0007240391053422446</v>
       </c>
       <c r="D16">
-        <v>0.01404765090300941</v>
+        <v>0.05399945761680414</v>
       </c>
       <c r="E16">
-        <v>0.05006704321993638</v>
+        <v>0.04654794000692775</v>
       </c>
       <c r="F16">
-        <v>1.422339952795738</v>
+        <v>4.240441369955533</v>
       </c>
       <c r="G16">
-        <v>1.441673318292004</v>
+        <v>4.782825777424222</v>
       </c>
       <c r="H16">
-        <v>0.9664365648615103</v>
+        <v>2.266461098298748</v>
       </c>
       <c r="I16">
-        <v>1.082570147319458</v>
+        <v>3.250849441561215</v>
       </c>
       <c r="J16">
         <v>0</v>
@@ -1112,10 +1112,10 @@
         <v>0</v>
       </c>
       <c r="M16">
-        <v>1.801168417535507</v>
+        <v>5.852013810022328</v>
       </c>
       <c r="N16">
-        <v>2.129142569809687</v>
+        <v>5.144031034059196</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1129,25 +1129,25 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>1.717893465258413E-06</v>
+        <v>0.0006370479389485872</v>
       </c>
       <c r="D17">
-        <v>0.01357718440233668</v>
+        <v>0.05090422416851226</v>
       </c>
       <c r="E17">
-        <v>0.04997324627325028</v>
+        <v>0.04577257743513741</v>
       </c>
       <c r="F17">
-        <v>1.380737733549921</v>
+        <v>4.030772444005692</v>
       </c>
       <c r="G17">
-        <v>1.393304559359365</v>
+        <v>4.54358819652586</v>
       </c>
       <c r="H17">
-        <v>0.9462718483518699</v>
+        <v>2.156294827189384</v>
       </c>
       <c r="I17">
-        <v>1.050681282988421</v>
+        <v>3.089738807435538</v>
       </c>
       <c r="J17">
         <v>0</v>
@@ -1159,10 +1159,10 @@
         <v>0</v>
       </c>
       <c r="M17">
-        <v>1.731248086192039</v>
+        <v>5.591719534492341</v>
       </c>
       <c r="N17">
-        <v>2.067543545284309</v>
+        <v>4.954174664614357</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1176,25 +1176,25 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>2.168955577364073E-06</v>
+        <v>0.000590126357479237</v>
       </c>
       <c r="D18">
-        <v>0.01330829574266801</v>
+        <v>0.04916737030251994</v>
       </c>
       <c r="E18">
-        <v>0.04992511997911109</v>
+        <v>0.04533810418250539</v>
       </c>
       <c r="F18">
-        <v>1.356909375592465</v>
+        <v>3.911995893119098</v>
       </c>
       <c r="G18">
-        <v>1.365580442558468</v>
+        <v>4.408074117140899</v>
       </c>
       <c r="H18">
-        <v>0.9347472259857739</v>
+        <v>2.093949541827868</v>
       </c>
       <c r="I18">
-        <v>1.032416303682439</v>
+        <v>2.998481875811521</v>
       </c>
       <c r="J18">
         <v>0</v>
@@ -1206,10 +1206,10 @@
         <v>0</v>
       </c>
       <c r="M18">
-        <v>1.691032130464777</v>
+        <v>5.443044506263135</v>
       </c>
       <c r="N18">
-        <v>2.032128279290475</v>
+        <v>4.845220303757401</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1223,25 +1223,25 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>2.334453022889704E-06</v>
+        <v>0.0005747393628299236</v>
       </c>
       <c r="D19">
-        <v>0.01321754450622592</v>
+        <v>0.04858632874553592</v>
       </c>
       <c r="E19">
-        <v>0.04990982750630835</v>
+        <v>0.04519291954499494</v>
       </c>
       <c r="F19">
-        <v>1.348858553957228</v>
+        <v>3.872075595995625</v>
       </c>
       <c r="G19">
-        <v>1.356209898400635</v>
+        <v>4.362530315684864</v>
       </c>
       <c r="H19">
-        <v>0.9308577470840476</v>
+        <v>2.073006175099778</v>
       </c>
       <c r="I19">
-        <v>1.026245145399528</v>
+        <v>2.96781268822842</v>
       </c>
       <c r="J19">
         <v>0</v>
@@ -1253,10 +1253,10 @@
         <v>0</v>
       </c>
       <c r="M19">
-        <v>1.67741574946254</v>
+        <v>5.392873241840846</v>
       </c>
       <c r="N19">
-        <v>2.020139938888121</v>
+        <v>4.808370529818887</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1270,25 +1270,25 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>1.640538906499955E-06</v>
+        <v>0.0006459775850773397</v>
       </c>
       <c r="D20">
-        <v>0.01362708829238102</v>
+        <v>0.05122911570477839</v>
       </c>
       <c r="E20">
-        <v>0.04998262893982286</v>
+        <v>0.04585391326688537</v>
       </c>
       <c r="F20">
-        <v>1.385155961669284</v>
+        <v>4.052899613526051</v>
       </c>
       <c r="G20">
-        <v>1.39844348613056</v>
+        <v>4.568834429649399</v>
       </c>
       <c r="H20">
-        <v>0.948410781878323</v>
+        <v>2.167914427848586</v>
       </c>
       <c r="I20">
-        <v>1.054067946414307</v>
+        <v>3.106740205571711</v>
       </c>
       <c r="J20">
         <v>0</v>
@@ -1300,10 +1300,10 @@
         <v>0</v>
       </c>
       <c r="M20">
-        <v>1.738691183464198</v>
+        <v>5.619318079950546</v>
       </c>
       <c r="N20">
-        <v>2.074099353724989</v>
+        <v>4.974359268947182</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1317,25 +1317,25 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>2.329218986574233E-07</v>
+        <v>0.000925387882849682</v>
       </c>
       <c r="D21">
-        <v>0.01502384736780016</v>
+        <v>0.06066267096881006</v>
       </c>
       <c r="E21">
-        <v>0.05029665089014657</v>
+        <v>0.04821666707842098</v>
       </c>
       <c r="F21">
-        <v>1.508317735445104</v>
+        <v>4.683554976454417</v>
       </c>
       <c r="G21">
-        <v>1.541506458202718</v>
+        <v>5.288542974487541</v>
       </c>
       <c r="H21">
-        <v>1.00827168058936</v>
+        <v>2.499729538122494</v>
       </c>
       <c r="I21">
-        <v>1.148473155955529</v>
+        <v>3.591425358200567</v>
       </c>
       <c r="J21">
         <v>0</v>
@@ -1347,10 +1347,10 @@
         <v>0</v>
       </c>
       <c r="M21">
-        <v>1.944573688519739</v>
+        <v>6.393442279624281</v>
       </c>
       <c r="N21">
-        <v>2.255565314398893</v>
+        <v>5.535151405713066</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1364,25 +1364,25 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>4.342262860390633E-08</v>
+        <v>0.001145074995485995</v>
       </c>
       <c r="D22">
-        <v>0.01595286918922767</v>
+        <v>0.06732851342718504</v>
       </c>
       <c r="E22">
-        <v>0.05055326835550034</v>
+        <v>0.04987849950039802</v>
       </c>
       <c r="F22">
-        <v>1.589736334002254</v>
+        <v>5.116344446010089</v>
       </c>
       <c r="G22">
-        <v>1.63590408239736</v>
+        <v>5.782652380304626</v>
       </c>
       <c r="H22">
-        <v>1.048067425558884</v>
+        <v>2.728102371071259</v>
       </c>
       <c r="I22">
-        <v>1.210881117160866</v>
+        <v>3.924177301747477</v>
       </c>
       <c r="J22">
         <v>0</v>
@@ -1394,10 +1394,10 @@
         <v>0</v>
       </c>
       <c r="M22">
-        <v>2.07913634713384</v>
+        <v>6.911477023012992</v>
       </c>
       <c r="N22">
-        <v>2.374272474789848</v>
+        <v>5.90433834683796</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1411,25 +1411,25 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>7.499756771167654E-08</v>
+        <v>0.001023906091972115</v>
       </c>
       <c r="D23">
-        <v>0.01545550918010719</v>
+        <v>0.06371876813556554</v>
       </c>
       <c r="E23">
-        <v>0.05041162743387062</v>
+        <v>0.04897989371016465</v>
       </c>
       <c r="F23">
-        <v>1.546195393572447</v>
+        <v>4.883228701830888</v>
       </c>
       <c r="G23">
-        <v>1.585438196227472</v>
+        <v>5.516484347674975</v>
       </c>
       <c r="H23">
-        <v>1.02676521544339</v>
+        <v>2.605029135288078</v>
       </c>
       <c r="I23">
-        <v>1.177506689885476</v>
+        <v>3.744931700427941</v>
       </c>
       <c r="J23">
         <v>0</v>
@@ -1441,10 +1441,10 @@
         <v>0</v>
       </c>
       <c r="M23">
-        <v>2.007316953280679</v>
+        <v>6.633729283940227</v>
       </c>
       <c r="N23">
-        <v>2.310907419963826</v>
+        <v>5.707025651197171</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1458,25 +1458,25 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>1.675274852619424E-06</v>
+        <v>0.0006419309597323064</v>
       </c>
       <c r="D24">
-        <v>0.01360452180549032</v>
+        <v>0.0510821005972133</v>
       </c>
       <c r="E24">
-        <v>0.04997836896900409</v>
+        <v>0.04581710631190461</v>
       </c>
       <c r="F24">
-        <v>1.383158202918764</v>
+        <v>4.042890468350777</v>
       </c>
       <c r="G24">
-        <v>1.396119916987288</v>
+        <v>4.557414347474889</v>
       </c>
       <c r="H24">
-        <v>0.947443557358838</v>
+        <v>2.162658145401736</v>
       </c>
       <c r="I24">
-        <v>1.052536623260991</v>
+        <v>3.099049648622454</v>
       </c>
       <c r="J24">
         <v>0</v>
@@ -1488,10 +1488,10 @@
         <v>0</v>
       </c>
       <c r="M24">
-        <v>1.735326214744248</v>
+        <v>5.606837780388361</v>
       </c>
       <c r="N24">
-        <v>2.071135476096288</v>
+        <v>4.965233202082743</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1505,25 +1505,25 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>6.268529575859105E-06</v>
+        <v>0.000346065751391178</v>
       </c>
       <c r="D25">
-        <v>0.01167282175692463</v>
+        <v>0.03907360338941857</v>
       </c>
       <c r="E25">
-        <v>0.04973394683104004</v>
+        <v>0.04284161590373969</v>
       </c>
       <c r="F25">
-        <v>1.211104831029076</v>
+        <v>3.204424184574805</v>
       </c>
       <c r="G25">
-        <v>1.195568090093758</v>
+        <v>3.600929993450649</v>
       </c>
       <c r="H25">
-        <v>0.8646852273309662</v>
+        <v>1.723592110881015</v>
       </c>
       <c r="I25">
-        <v>0.9206512817370935</v>
+        <v>2.455023908922016</v>
       </c>
       <c r="J25">
         <v>0</v>
@@ -1535,10 +1535,10 @@
         <v>0</v>
       </c>
       <c r="M25">
-        <v>1.441951971154381</v>
+        <v>4.537898376214784</v>
       </c>
       <c r="N25">
-        <v>1.813084641365805</v>
+        <v>4.174292861626839</v>
       </c>
       <c r="O25">
         <v>0</v>
